--- a/biology/Zoologie/Chimarrogale_hantu/Chimarrogale_hantu.xlsx
+++ b/biology/Zoologie/Chimarrogale_hantu/Chimarrogale_hantu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chimarrogale hantu est une espèce de musaraignes (mammifère de la famille des Soricidae). Observée seulement en Malaisie, dans la réserve Ulut Langsat, la Chimarrogale hantu est plutôt grande, avec une queue relativement longue, un corps et une tête fuselée, des yeux et des oreilles minuscules.
